--- a/data/pca/factorExposure/factorExposure_2015-12-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01698876024488412</v>
+        <v>0.01742374674282649</v>
       </c>
       <c r="C2">
-        <v>0.03113631289880435</v>
+        <v>-0.03111926038092013</v>
       </c>
       <c r="D2">
-        <v>0.08698863961568369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1135511566467277</v>
+      </c>
+      <c r="E2">
+        <v>-0.07286622333289805</v>
+      </c>
+      <c r="F2">
+        <v>0.009004438696928352</v>
+      </c>
+      <c r="G2">
+        <v>-0.05449300313957026</v>
+      </c>
+      <c r="H2">
+        <v>0.09951043214392649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01543126945241878</v>
+        <v>0.008917394811431514</v>
       </c>
       <c r="C3">
-        <v>0.05552139797741986</v>
+        <v>-0.03649948640591816</v>
       </c>
       <c r="D3">
-        <v>0.1342121199269859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08042657404800999</v>
+      </c>
+      <c r="E3">
+        <v>-0.07815039679859165</v>
+      </c>
+      <c r="F3">
+        <v>0.03926076498564659</v>
+      </c>
+      <c r="G3">
+        <v>-0.08198404502938854</v>
+      </c>
+      <c r="H3">
+        <v>0.03328668389707756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04921933097297895</v>
+        <v>0.05381685589706394</v>
       </c>
       <c r="C4">
-        <v>0.03378293561211951</v>
+        <v>-0.06174065597983856</v>
       </c>
       <c r="D4">
-        <v>0.1236531116248811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1392259933415423</v>
+      </c>
+      <c r="E4">
+        <v>-0.05895726695732144</v>
+      </c>
+      <c r="F4">
+        <v>0.01942198184565978</v>
+      </c>
+      <c r="G4">
+        <v>0.02768152325581666</v>
+      </c>
+      <c r="H4">
+        <v>-0.02122555141030263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04415047266594366</v>
+        <v>0.04072016492046982</v>
       </c>
       <c r="C6">
-        <v>0.004618655713640843</v>
+        <v>-0.02579211220896274</v>
       </c>
       <c r="D6">
-        <v>0.1280380209573294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1274780283183452</v>
+      </c>
+      <c r="E6">
+        <v>-0.03492518401080422</v>
+      </c>
+      <c r="F6">
+        <v>0.01470500965979296</v>
+      </c>
+      <c r="G6">
+        <v>-0.01166130709934935</v>
+      </c>
+      <c r="H6">
+        <v>0.01697440383224059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02212782839085985</v>
+        <v>0.01591707179798731</v>
       </c>
       <c r="C7">
-        <v>0.01212136042347938</v>
+        <v>-0.02861356601160468</v>
       </c>
       <c r="D7">
-        <v>0.08846027669832369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09024565461541231</v>
+      </c>
+      <c r="E7">
+        <v>-0.03825336778016446</v>
+      </c>
+      <c r="F7">
+        <v>0.01528111284344536</v>
+      </c>
+      <c r="G7">
+        <v>0.01865983481332045</v>
+      </c>
+      <c r="H7">
+        <v>0.1091438048753022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00966279565103249</v>
+        <v>0.007939939758180022</v>
       </c>
       <c r="C8">
-        <v>0.02783612635895608</v>
+        <v>-0.03715057743727419</v>
       </c>
       <c r="D8">
-        <v>0.06264635031414299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07566937627040331</v>
+      </c>
+      <c r="E8">
+        <v>-0.03917028798592061</v>
+      </c>
+      <c r="F8">
+        <v>0.03007380616877231</v>
+      </c>
+      <c r="G8">
+        <v>-0.006646831725496349</v>
+      </c>
+      <c r="H8">
+        <v>0.04177131443612955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04031122825899093</v>
+        <v>0.04113402919634643</v>
       </c>
       <c r="C9">
-        <v>0.0336396087712758</v>
+        <v>-0.05660992028830486</v>
       </c>
       <c r="D9">
-        <v>0.1061201023790709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1165835480113193</v>
+      </c>
+      <c r="E9">
+        <v>-0.04043557132395861</v>
+      </c>
+      <c r="F9">
+        <v>-0.00204931195396874</v>
+      </c>
+      <c r="G9">
+        <v>0.02284551773399898</v>
+      </c>
+      <c r="H9">
+        <v>0.01376057850729994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09226094535070072</v>
+        <v>0.132359460270511</v>
       </c>
       <c r="C10">
-        <v>-0.1974174075000455</v>
+        <v>0.1915111813414175</v>
       </c>
       <c r="D10">
-        <v>-0.007360179878318282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002616049663249727</v>
+      </c>
+      <c r="E10">
+        <v>-0.05163716573135751</v>
+      </c>
+      <c r="F10">
+        <v>0.01456408058955047</v>
+      </c>
+      <c r="G10">
+        <v>0.04128703614140715</v>
+      </c>
+      <c r="H10">
+        <v>-0.005433099775934954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03434887165176203</v>
+        <v>0.02877616342575618</v>
       </c>
       <c r="C11">
-        <v>0.03663259781784602</v>
+        <v>-0.04210723368029447</v>
       </c>
       <c r="D11">
-        <v>0.05928580003194359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05767471573746645</v>
+      </c>
+      <c r="E11">
+        <v>-0.002670380701262467</v>
+      </c>
+      <c r="F11">
+        <v>0.006742865369579086</v>
+      </c>
+      <c r="G11">
+        <v>0.003713902134499685</v>
+      </c>
+      <c r="H11">
+        <v>0.05249700364944521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03788922997744728</v>
+        <v>0.03252567750219014</v>
       </c>
       <c r="C12">
-        <v>0.03868071894757499</v>
+        <v>-0.04388405651266439</v>
       </c>
       <c r="D12">
-        <v>0.05821994281975932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05575782718249436</v>
+      </c>
+      <c r="E12">
+        <v>-0.01221863033979272</v>
+      </c>
+      <c r="F12">
+        <v>0.001673435672885558</v>
+      </c>
+      <c r="G12">
+        <v>0.007714605404932069</v>
+      </c>
+      <c r="H12">
+        <v>0.06753932978671048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01474459467452908</v>
+        <v>0.01888753504017413</v>
       </c>
       <c r="C13">
-        <v>0.02552191018931177</v>
+        <v>-0.03712910204079043</v>
       </c>
       <c r="D13">
-        <v>0.1188241168373905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1392867092679712</v>
+      </c>
+      <c r="E13">
+        <v>-0.06590209947330129</v>
+      </c>
+      <c r="F13">
+        <v>0.02848617967560822</v>
+      </c>
+      <c r="G13">
+        <v>0.00127562800686445</v>
+      </c>
+      <c r="H13">
+        <v>0.1014460419342841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01097684073446177</v>
+        <v>0.007834948902521373</v>
       </c>
       <c r="C14">
-        <v>0.01710442444262402</v>
+        <v>-0.02299853529848079</v>
       </c>
       <c r="D14">
-        <v>0.08004695086566956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08383357343955715</v>
+      </c>
+      <c r="E14">
+        <v>-0.03664864304436738</v>
+      </c>
+      <c r="F14">
+        <v>-0.0106776660621853</v>
+      </c>
+      <c r="G14">
+        <v>-0.0007883615993034841</v>
+      </c>
+      <c r="H14">
+        <v>0.1041164731262908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001500856608470379</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008814065385784327</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02785026574616794</v>
+      </c>
+      <c r="E15">
+        <v>-0.006933784340283748</v>
+      </c>
+      <c r="F15">
+        <v>-0.003045196893562128</v>
+      </c>
+      <c r="G15">
+        <v>-0.007852703584593347</v>
+      </c>
+      <c r="H15">
+        <v>0.0115047264201274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03625726775689241</v>
+        <v>0.02975351138619128</v>
       </c>
       <c r="C16">
-        <v>0.03818880139742</v>
+        <v>-0.0424440667059021</v>
       </c>
       <c r="D16">
-        <v>0.06447151048029814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05975568362787245</v>
+      </c>
+      <c r="E16">
+        <v>-0.01613986142708156</v>
+      </c>
+      <c r="F16">
+        <v>-0.005729594049157956</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008249502574379218</v>
+      </c>
+      <c r="H16">
+        <v>0.0619497358140494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009694201965667931</v>
+        <v>0.01101024884501958</v>
       </c>
       <c r="C19">
-        <v>0.01852949661764931</v>
+        <v>-0.02057567698193217</v>
       </c>
       <c r="D19">
-        <v>0.16620185285526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1286870642093742</v>
+      </c>
+      <c r="E19">
+        <v>-0.06599754961257888</v>
+      </c>
+      <c r="F19">
+        <v>-0.02567449563861162</v>
+      </c>
+      <c r="G19">
+        <v>-0.01508714264671749</v>
+      </c>
+      <c r="H19">
+        <v>0.05899930017670638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02043976626694768</v>
+        <v>0.01626644683305452</v>
       </c>
       <c r="C20">
-        <v>0.01929275056729591</v>
+        <v>-0.03117338674596974</v>
       </c>
       <c r="D20">
-        <v>0.08378752531436114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09409546144573903</v>
+      </c>
+      <c r="E20">
+        <v>-0.05694926879643263</v>
+      </c>
+      <c r="F20">
+        <v>-0.006612342240223571</v>
+      </c>
+      <c r="G20">
+        <v>0.003875070217794671</v>
+      </c>
+      <c r="H20">
+        <v>0.06009503192013099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008737467374386342</v>
+        <v>0.01467254426379011</v>
       </c>
       <c r="C21">
-        <v>0.02543519108882023</v>
+        <v>-0.0352024879440148</v>
       </c>
       <c r="D21">
-        <v>0.1223527872528287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1352971272057779</v>
+      </c>
+      <c r="E21">
+        <v>-0.09387615295526196</v>
+      </c>
+      <c r="F21">
+        <v>-0.01332929151311979</v>
+      </c>
+      <c r="G21">
+        <v>0.04095739019547683</v>
+      </c>
+      <c r="H21">
+        <v>0.1132025204933483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004670548648113271</v>
+        <v>0.005404782385787275</v>
       </c>
       <c r="C22">
-        <v>0.02534857192109379</v>
+        <v>-0.03923901370705361</v>
       </c>
       <c r="D22">
-        <v>0.07439937285139567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1286372976350985</v>
+      </c>
+      <c r="E22">
+        <v>-0.03520851313391875</v>
+      </c>
+      <c r="F22">
+        <v>0.07770113229436795</v>
+      </c>
+      <c r="G22">
+        <v>-0.06637111398744373</v>
+      </c>
+      <c r="H22">
+        <v>-0.02906623019323693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004703437171157143</v>
+        <v>0.005502770699407544</v>
       </c>
       <c r="C23">
-        <v>0.02533760461438548</v>
+        <v>-0.03968204343198676</v>
       </c>
       <c r="D23">
-        <v>0.07387112582495169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.128098846582575</v>
+      </c>
+      <c r="E23">
+        <v>-0.03543133452182646</v>
+      </c>
+      <c r="F23">
+        <v>0.07760288375627093</v>
+      </c>
+      <c r="G23">
+        <v>-0.0654909223529264</v>
+      </c>
+      <c r="H23">
+        <v>-0.02931659008088869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0349042520347102</v>
+        <v>0.03134606664081528</v>
       </c>
       <c r="C24">
-        <v>0.04242310121947171</v>
+        <v>-0.05242196041731978</v>
       </c>
       <c r="D24">
-        <v>0.06646517209961032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06431757109721353</v>
+      </c>
+      <c r="E24">
+        <v>-0.01839630118535169</v>
+      </c>
+      <c r="F24">
+        <v>-0.003774217623571552</v>
+      </c>
+      <c r="G24">
+        <v>0.01117001305349044</v>
+      </c>
+      <c r="H24">
+        <v>0.07307296305213573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04133610782906186</v>
+        <v>0.03602705714824742</v>
       </c>
       <c r="C25">
-        <v>0.04689174759104361</v>
+        <v>-0.05205680453394219</v>
       </c>
       <c r="D25">
-        <v>0.06602978399964306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06041997650260648</v>
+      </c>
+      <c r="E25">
+        <v>-0.01909174237537918</v>
+      </c>
+      <c r="F25">
+        <v>0.007023423412318804</v>
+      </c>
+      <c r="G25">
+        <v>0.01684231098011657</v>
+      </c>
+      <c r="H25">
+        <v>0.05756912131317342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02376052010942957</v>
+        <v>0.02114966121018173</v>
       </c>
       <c r="C26">
-        <v>0.00215075968977306</v>
+        <v>-0.01591733471701415</v>
       </c>
       <c r="D26">
-        <v>0.05270602129319887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06357984550154815</v>
+      </c>
+      <c r="E26">
+        <v>-0.02867473363887331</v>
+      </c>
+      <c r="F26">
+        <v>-0.005591257039370067</v>
+      </c>
+      <c r="G26">
+        <v>-0.004470546082505736</v>
+      </c>
+      <c r="H26">
+        <v>0.05956979944258996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1346095493254552</v>
+        <v>0.1878276563249696</v>
       </c>
       <c r="C28">
-        <v>-0.2767447101261824</v>
+        <v>0.2591085708315882</v>
       </c>
       <c r="D28">
-        <v>-0.04534122607003352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01829234972873538</v>
+      </c>
+      <c r="E28">
+        <v>-0.07405237886878063</v>
+      </c>
+      <c r="F28">
+        <v>-0.003133411659143874</v>
+      </c>
+      <c r="G28">
+        <v>0.07532496074770455</v>
+      </c>
+      <c r="H28">
+        <v>0.005877268403758402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005163810019442074</v>
+        <v>0.006716101309876454</v>
       </c>
       <c r="C29">
-        <v>0.01748519210010619</v>
+        <v>-0.0222740764675468</v>
       </c>
       <c r="D29">
-        <v>0.06363378044322107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07809816905626506</v>
+      </c>
+      <c r="E29">
+        <v>-0.03850081158529645</v>
+      </c>
+      <c r="F29">
+        <v>0.003259422132384344</v>
+      </c>
+      <c r="G29">
+        <v>0.01660751009969043</v>
+      </c>
+      <c r="H29">
+        <v>0.1063053174851749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04255032686371298</v>
+        <v>0.04352946970176717</v>
       </c>
       <c r="C30">
-        <v>0.03027296490610724</v>
+        <v>-0.05599202269100598</v>
       </c>
       <c r="D30">
-        <v>0.1611397474837639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1750071185044496</v>
+      </c>
+      <c r="E30">
+        <v>-0.02809173739238519</v>
+      </c>
+      <c r="F30">
+        <v>0.004832261409375486</v>
+      </c>
+      <c r="G30">
+        <v>-0.03696387481439326</v>
+      </c>
+      <c r="H30">
+        <v>0.01795926239935965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06724695004638462</v>
+        <v>0.05656373395980407</v>
       </c>
       <c r="C31">
-        <v>0.05076863056740706</v>
+        <v>-0.07145983413629424</v>
       </c>
       <c r="D31">
-        <v>0.0619520474890807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05283425110282665</v>
+      </c>
+      <c r="E31">
+        <v>-0.03869751548847192</v>
+      </c>
+      <c r="F31">
+        <v>0.04208221473474106</v>
+      </c>
+      <c r="G31">
+        <v>0.0109301218561367</v>
+      </c>
+      <c r="H31">
+        <v>0.03643142402159232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008319067131041892</v>
+        <v>0.009912758201786559</v>
       </c>
       <c r="C32">
-        <v>0.003223541764833456</v>
+        <v>-0.01325736449835125</v>
       </c>
       <c r="D32">
-        <v>0.0537106803268011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09086825331634862</v>
+      </c>
+      <c r="E32">
+        <v>-0.0883773025123787</v>
+      </c>
+      <c r="F32">
+        <v>-0.003930654742120884</v>
+      </c>
+      <c r="G32">
+        <v>0.05279317343747451</v>
+      </c>
+      <c r="H32">
+        <v>0.09457549644990913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02586308439943046</v>
+        <v>0.02438901820540436</v>
       </c>
       <c r="C33">
-        <v>0.0206936017418405</v>
+        <v>-0.040357554962855</v>
       </c>
       <c r="D33">
-        <v>0.1306523959062562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1301952585919241</v>
+      </c>
+      <c r="E33">
+        <v>-0.05127514918534391</v>
+      </c>
+      <c r="F33">
+        <v>0.01552076597270051</v>
+      </c>
+      <c r="G33">
+        <v>0.005414672830780131</v>
+      </c>
+      <c r="H33">
+        <v>0.071249452961057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03376300206618037</v>
+        <v>0.02873942398665659</v>
       </c>
       <c r="C34">
-        <v>0.05808409372155554</v>
+        <v>-0.06010815779668523</v>
       </c>
       <c r="D34">
-        <v>0.06848611459607781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05900923571971823</v>
+      </c>
+      <c r="E34">
+        <v>-0.0006377546773707521</v>
+      </c>
+      <c r="F34">
+        <v>-0.002853522706660941</v>
+      </c>
+      <c r="G34">
+        <v>0.01273411480555211</v>
+      </c>
+      <c r="H34">
+        <v>0.07788273865282172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006668210594165787</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003027681269580642</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003625633691553023</v>
+      </c>
+      <c r="E35">
+        <v>-0.00050352601624719</v>
+      </c>
+      <c r="F35">
+        <v>0.0001064030929309682</v>
+      </c>
+      <c r="G35">
+        <v>-0.0004478161573972242</v>
+      </c>
+      <c r="H35">
+        <v>0.002837815792078091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02123897938266342</v>
+        <v>0.01908565023773157</v>
       </c>
       <c r="C36">
-        <v>-0.0002612102274893444</v>
+        <v>-0.01395317132432121</v>
       </c>
       <c r="D36">
-        <v>0.07102176910726095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07625774144771232</v>
+      </c>
+      <c r="E36">
+        <v>-0.03683358065818473</v>
+      </c>
+      <c r="F36">
+        <v>-0.003895578087367209</v>
+      </c>
+      <c r="G36">
+        <v>0.01179215402787768</v>
+      </c>
+      <c r="H36">
+        <v>0.05514231052572344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02776362944873064</v>
+        <v>0.02207074626944234</v>
       </c>
       <c r="C38">
-        <v>0.0157407301120965</v>
+        <v>-0.02110997392288677</v>
       </c>
       <c r="D38">
-        <v>0.05584325249326521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06079960401596509</v>
+      </c>
+      <c r="E38">
+        <v>-0.04454893843919872</v>
+      </c>
+      <c r="F38">
+        <v>-0.005049965467762262</v>
+      </c>
+      <c r="G38">
+        <v>-0.03543455874847287</v>
+      </c>
+      <c r="H38">
+        <v>0.03918347832809818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04072212585201022</v>
+        <v>0.03701312690927794</v>
       </c>
       <c r="C39">
-        <v>0.05002104804477005</v>
+        <v>-0.06228071362964325</v>
       </c>
       <c r="D39">
-        <v>0.08939628977723213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1019876452602583</v>
+      </c>
+      <c r="E39">
+        <v>-0.01449747926870429</v>
+      </c>
+      <c r="F39">
+        <v>-0.01973949075236331</v>
+      </c>
+      <c r="G39">
+        <v>-0.003270973200972232</v>
+      </c>
+      <c r="H39">
+        <v>0.09183638053403302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01706704628949065</v>
+        <v>0.01498296701432153</v>
       </c>
       <c r="C40">
-        <v>0.04096509727030082</v>
+        <v>-0.03580847568933104</v>
       </c>
       <c r="D40">
-        <v>0.07588114212502732</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0834005369833683</v>
+      </c>
+      <c r="E40">
+        <v>-0.07435697276518462</v>
+      </c>
+      <c r="F40">
+        <v>0.05118807829121013</v>
+      </c>
+      <c r="G40">
+        <v>-0.02906097886450364</v>
+      </c>
+      <c r="H40">
+        <v>0.1604718298946037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02495543296918864</v>
+        <v>0.02318181526602132</v>
       </c>
       <c r="C41">
-        <v>-0.01018856412042497</v>
+        <v>-0.007475348819619115</v>
       </c>
       <c r="D41">
-        <v>0.06719617962263737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05711657949378137</v>
+      </c>
+      <c r="E41">
+        <v>-0.05247661334793928</v>
+      </c>
+      <c r="F41">
+        <v>-0.001942856433446316</v>
+      </c>
+      <c r="G41">
+        <v>-0.003439056530767854</v>
+      </c>
+      <c r="H41">
+        <v>0.0485019116852474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03468514905336127</v>
+        <v>0.02547660615765351</v>
       </c>
       <c r="C43">
-        <v>0.0005226924592629364</v>
+        <v>-0.01780804681127515</v>
       </c>
       <c r="D43">
-        <v>0.104509859576392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08738942141111065</v>
+      </c>
+      <c r="E43">
+        <v>-0.03925902214789109</v>
+      </c>
+      <c r="F43">
+        <v>0.004079033163668742</v>
+      </c>
+      <c r="G43">
+        <v>-0.006513098842007872</v>
+      </c>
+      <c r="H43">
+        <v>0.0673908616261036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01364122422323133</v>
+        <v>0.01702705243913978</v>
       </c>
       <c r="C44">
-        <v>0.03880871779482582</v>
+        <v>-0.04050979342583607</v>
       </c>
       <c r="D44">
-        <v>0.0848623844421206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09491677019762071</v>
+      </c>
+      <c r="E44">
+        <v>-0.07306776089656704</v>
+      </c>
+      <c r="F44">
+        <v>-0.002361776603922766</v>
+      </c>
+      <c r="G44">
+        <v>0.0142384412746628</v>
+      </c>
+      <c r="H44">
+        <v>0.07728209619803901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0198969757821524</v>
+        <v>0.01658026478473782</v>
       </c>
       <c r="C46">
-        <v>0.01760675572534728</v>
+        <v>-0.02904201321225506</v>
       </c>
       <c r="D46">
-        <v>0.07185565160579063</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08565064401251628</v>
+      </c>
+      <c r="E46">
+        <v>-0.03970276267569708</v>
+      </c>
+      <c r="F46">
+        <v>-0.02047503718412953</v>
+      </c>
+      <c r="G46">
+        <v>0.02620481560172186</v>
+      </c>
+      <c r="H46">
+        <v>0.106001133989342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09455101291278956</v>
+        <v>0.08585307974315826</v>
       </c>
       <c r="C47">
-        <v>0.06743186225121012</v>
+        <v>-0.08791060144384785</v>
       </c>
       <c r="D47">
-        <v>0.04038662121041867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03387828691242106</v>
+      </c>
+      <c r="E47">
+        <v>-0.03791364089776781</v>
+      </c>
+      <c r="F47">
+        <v>0.02382755919135724</v>
+      </c>
+      <c r="G47">
+        <v>0.05763178951598959</v>
+      </c>
+      <c r="H47">
+        <v>0.009026171686535991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02106182504177375</v>
+        <v>0.01972828043375415</v>
       </c>
       <c r="C48">
-        <v>0.005902556302078673</v>
+        <v>-0.0180682097301161</v>
       </c>
       <c r="D48">
-        <v>0.07014835841245404</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07769467447000651</v>
+      </c>
+      <c r="E48">
+        <v>-0.05205566819845182</v>
+      </c>
+      <c r="F48">
+        <v>-0.01473287303437277</v>
+      </c>
+      <c r="G48">
+        <v>0.00859623505209</v>
+      </c>
+      <c r="H48">
+        <v>0.05600077320457575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07855832417545021</v>
+        <v>0.06135272180553847</v>
       </c>
       <c r="C50">
-        <v>0.06286476456422621</v>
+        <v>-0.06969037118210124</v>
       </c>
       <c r="D50">
-        <v>0.06767152840905127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06015274199729415</v>
+      </c>
+      <c r="E50">
+        <v>-0.04676889740589264</v>
+      </c>
+      <c r="F50">
+        <v>0.04404751298666704</v>
+      </c>
+      <c r="G50">
+        <v>-0.0101596656074961</v>
+      </c>
+      <c r="H50">
+        <v>0.0356872017952426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007749046179978433</v>
+        <v>0.007690092510970806</v>
       </c>
       <c r="C51">
-        <v>0.011612723783953</v>
+        <v>-0.01460485438077487</v>
       </c>
       <c r="D51">
-        <v>0.07499034072614327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08477329942155555</v>
+      </c>
+      <c r="E51">
+        <v>-0.02815199023210516</v>
+      </c>
+      <c r="F51">
+        <v>-0.004946264963465695</v>
+      </c>
+      <c r="G51">
+        <v>-0.007320635484551251</v>
+      </c>
+      <c r="H51">
+        <v>0.08581120077206898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0770813808677321</v>
+        <v>0.08715108057783585</v>
       </c>
       <c r="C53">
-        <v>0.08731904927182003</v>
+        <v>-0.0996704793158727</v>
       </c>
       <c r="D53">
-        <v>0.01831531162201589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00628038488492638</v>
+      </c>
+      <c r="E53">
+        <v>-0.09860192386608575</v>
+      </c>
+      <c r="F53">
+        <v>0.02881328124078159</v>
+      </c>
+      <c r="G53">
+        <v>0.09739056672703046</v>
+      </c>
+      <c r="H53">
+        <v>-0.01885384007779307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0341244846806745</v>
+        <v>0.02769737205360054</v>
       </c>
       <c r="C54">
-        <v>0.02726199598683531</v>
+        <v>-0.03436154545460421</v>
       </c>
       <c r="D54">
-        <v>0.08491893125656587</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08589153717858573</v>
+      </c>
+      <c r="E54">
+        <v>-0.04107631317379732</v>
+      </c>
+      <c r="F54">
+        <v>-0.01821067633228974</v>
+      </c>
+      <c r="G54">
+        <v>-0.00141574301521105</v>
+      </c>
+      <c r="H54">
+        <v>0.1137948382614531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08751094533074849</v>
+        <v>0.08511615182876334</v>
       </c>
       <c r="C55">
-        <v>0.06701017024585369</v>
+        <v>-0.08088794804335596</v>
       </c>
       <c r="D55">
-        <v>-0.001070499772281288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01112000646307377</v>
+      </c>
+      <c r="E55">
+        <v>-0.05936506617894841</v>
+      </c>
+      <c r="F55">
+        <v>0.03261882746302353</v>
+      </c>
+      <c r="G55">
+        <v>0.04415257873886648</v>
+      </c>
+      <c r="H55">
+        <v>-0.02372307309254125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1375435484242747</v>
+        <v>0.1334854614066846</v>
       </c>
       <c r="C56">
-        <v>0.1028510243228109</v>
+        <v>-0.124355854973071</v>
       </c>
       <c r="D56">
-        <v>0.005418880453543873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01255717659793016</v>
+      </c>
+      <c r="E56">
+        <v>-0.0599235426615472</v>
+      </c>
+      <c r="F56">
+        <v>0.01943267144750551</v>
+      </c>
+      <c r="G56">
+        <v>0.06209457701607323</v>
+      </c>
+      <c r="H56">
+        <v>-0.02475782936611429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03332521399120625</v>
+        <v>0.03586377343868116</v>
       </c>
       <c r="C58">
-        <v>-0.02462924003559256</v>
+        <v>-0.01981430916573092</v>
       </c>
       <c r="D58">
-        <v>0.3904435907488701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3906703886183523</v>
+      </c>
+      <c r="E58">
+        <v>-0.2384691527368044</v>
+      </c>
+      <c r="F58">
+        <v>0.1135953777833356</v>
+      </c>
+      <c r="G58">
+        <v>-0.3773446815732741</v>
+      </c>
+      <c r="H58">
+        <v>-0.4052624046337984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1355849713115253</v>
+        <v>0.170105864449161</v>
       </c>
       <c r="C59">
-        <v>-0.1961357068636275</v>
+        <v>0.1742783400270024</v>
       </c>
       <c r="D59">
-        <v>0.01443899113079361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04497496153172005</v>
+      </c>
+      <c r="E59">
+        <v>-0.0186774905808761</v>
+      </c>
+      <c r="F59">
+        <v>-0.03678957505261377</v>
+      </c>
+      <c r="G59">
+        <v>8.534804839084498e-06</v>
+      </c>
+      <c r="H59">
+        <v>-0.01860379924949476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2579269434714971</v>
+        <v>0.2346872101981917</v>
       </c>
       <c r="C60">
-        <v>0.04986646866784255</v>
+        <v>-0.09234651534980698</v>
       </c>
       <c r="D60">
-        <v>0.1557382674562214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1150270336647342</v>
+      </c>
+      <c r="E60">
+        <v>0.3560973957290728</v>
+      </c>
+      <c r="F60">
+        <v>0.08062098472730379</v>
+      </c>
+      <c r="G60">
+        <v>0.01480785779965336</v>
+      </c>
+      <c r="H60">
+        <v>-0.07398361005968999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04597181257834249</v>
+        <v>0.04170115873632747</v>
       </c>
       <c r="C61">
-        <v>0.04838325421404037</v>
+        <v>-0.05756230507749325</v>
       </c>
       <c r="D61">
-        <v>0.09868922320273314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09288352215643908</v>
+      </c>
+      <c r="E61">
+        <v>-0.01159212402567855</v>
+      </c>
+      <c r="F61">
+        <v>-0.009664272035932847</v>
+      </c>
+      <c r="G61">
+        <v>0.01830808766475591</v>
+      </c>
+      <c r="H61">
+        <v>0.08408245040562468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01676322323854838</v>
+        <v>0.01587863474670217</v>
       </c>
       <c r="C63">
-        <v>0.01643828451760443</v>
+        <v>-0.03034278149078246</v>
       </c>
       <c r="D63">
-        <v>0.06125039160731884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07058563008187818</v>
+      </c>
+      <c r="E63">
+        <v>-0.04760667648448065</v>
+      </c>
+      <c r="F63">
+        <v>0.02437384581349388</v>
+      </c>
+      <c r="G63">
+        <v>-0.007557893138764042</v>
+      </c>
+      <c r="H63">
+        <v>0.05050480664560761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05759329635087034</v>
+        <v>0.05524811566024584</v>
       </c>
       <c r="C64">
-        <v>0.05985868919696066</v>
+        <v>-0.07670155480574777</v>
       </c>
       <c r="D64">
-        <v>0.05982211623720639</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05490046156829075</v>
+      </c>
+      <c r="E64">
+        <v>-0.03212951251465111</v>
+      </c>
+      <c r="F64">
+        <v>-0.01838724058987681</v>
+      </c>
+      <c r="G64">
+        <v>0.04922976856135326</v>
+      </c>
+      <c r="H64">
+        <v>0.05539111839322902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06112332917073449</v>
+        <v>0.05235138581860771</v>
       </c>
       <c r="C65">
-        <v>0.0001293790847594838</v>
+        <v>-0.02542318591656851</v>
       </c>
       <c r="D65">
-        <v>0.1151966395506924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.119863528978666</v>
+      </c>
+      <c r="E65">
+        <v>-0.004701441970729451</v>
+      </c>
+      <c r="F65">
+        <v>0.02007460141134453</v>
+      </c>
+      <c r="G65">
+        <v>-0.03708924053476932</v>
+      </c>
+      <c r="H65">
+        <v>-0.02690688921856007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04584318923893823</v>
+        <v>0.0437191888449629</v>
       </c>
       <c r="C66">
-        <v>0.0502959154382818</v>
+        <v>-0.06951905125734661</v>
       </c>
       <c r="D66">
-        <v>0.1134187751190237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1292633925427098</v>
+      </c>
+      <c r="E66">
+        <v>-0.01853666956751213</v>
+      </c>
+      <c r="F66">
+        <v>-0.01034175075304127</v>
+      </c>
+      <c r="G66">
+        <v>-0.009058720222243331</v>
+      </c>
+      <c r="H66">
+        <v>0.06468500339252668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04588911537040119</v>
+        <v>0.03879485525661847</v>
       </c>
       <c r="C67">
-        <v>0.02387575253572908</v>
+        <v>-0.02662000165521563</v>
       </c>
       <c r="D67">
-        <v>0.02853630631462613</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02426407534229394</v>
+      </c>
+      <c r="E67">
+        <v>-0.02687248927111609</v>
+      </c>
+      <c r="F67">
+        <v>0.003291082834345827</v>
+      </c>
+      <c r="G67">
+        <v>-0.03280105679053141</v>
+      </c>
+      <c r="H67">
+        <v>0.03846388814364389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.166146115878637</v>
+        <v>0.1922509005165602</v>
       </c>
       <c r="C68">
-        <v>-0.2548692346325403</v>
+        <v>0.2093714919896981</v>
       </c>
       <c r="D68">
-        <v>-0.01961539368019591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01672407867059196</v>
+      </c>
+      <c r="E68">
+        <v>-0.05387098607717546</v>
+      </c>
+      <c r="F68">
+        <v>0.02469470032572773</v>
+      </c>
+      <c r="G68">
+        <v>-0.008207526000770836</v>
+      </c>
+      <c r="H68">
+        <v>-0.007320779276222622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0856280258817981</v>
+        <v>0.07849616334056704</v>
       </c>
       <c r="C69">
-        <v>0.08065056394549543</v>
+        <v>-0.09696767263203507</v>
       </c>
       <c r="D69">
-        <v>0.05242884996532417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04709816909274439</v>
+      </c>
+      <c r="E69">
+        <v>-0.02816024403454013</v>
+      </c>
+      <c r="F69">
+        <v>0.00338057294946873</v>
+      </c>
+      <c r="G69">
+        <v>0.03792045464187549</v>
+      </c>
+      <c r="H69">
+        <v>0.02474798316453684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1386616362524909</v>
+        <v>0.1760027516844492</v>
       </c>
       <c r="C71">
-        <v>-0.2500747297793717</v>
+        <v>0.2205961898230922</v>
       </c>
       <c r="D71">
-        <v>0.01306688986985111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03720555148414938</v>
+      </c>
+      <c r="E71">
+        <v>-0.05363455430466996</v>
+      </c>
+      <c r="F71">
+        <v>0.0226107886579429</v>
+      </c>
+      <c r="G71">
+        <v>0.03640233216566363</v>
+      </c>
+      <c r="H71">
+        <v>0.01431442834532629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09914591211905117</v>
+        <v>0.1019171373340478</v>
       </c>
       <c r="C72">
-        <v>0.03389993926484849</v>
+        <v>-0.06269425946701521</v>
       </c>
       <c r="D72">
-        <v>0.0938250721642237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09788137880844579</v>
+      </c>
+      <c r="E72">
+        <v>0.02508325182373631</v>
+      </c>
+      <c r="F72">
+        <v>0.03450096567598425</v>
+      </c>
+      <c r="G72">
+        <v>0.02021244116834817</v>
+      </c>
+      <c r="H72">
+        <v>0.03003379423039903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3162697520879678</v>
+        <v>0.2663196994533386</v>
       </c>
       <c r="C73">
-        <v>0.002143657058203661</v>
+        <v>-0.07459066473304803</v>
       </c>
       <c r="D73">
-        <v>0.2712278123355061</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1869867065331919</v>
+      </c>
+      <c r="E73">
+        <v>0.6723788498443087</v>
+      </c>
+      <c r="F73">
+        <v>0.0934002338977119</v>
+      </c>
+      <c r="G73">
+        <v>-0.04490872203995432</v>
+      </c>
+      <c r="H73">
+        <v>-0.1323764242284665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1038878560701576</v>
+        <v>0.1020125495499191</v>
       </c>
       <c r="C74">
-        <v>0.06511162777388306</v>
+        <v>-0.08812496480069155</v>
       </c>
       <c r="D74">
-        <v>0.02029138185246582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0007702977223080493</v>
+      </c>
+      <c r="E74">
+        <v>-0.084482030820206</v>
+      </c>
+      <c r="F74">
+        <v>0.04240914158458004</v>
+      </c>
+      <c r="G74">
+        <v>0.06154684362495228</v>
+      </c>
+      <c r="H74">
+        <v>-0.04944743890873217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2460171148630969</v>
+        <v>0.2378519742834142</v>
       </c>
       <c r="C75">
-        <v>0.1358432177193667</v>
+        <v>-0.16715390738775</v>
       </c>
       <c r="D75">
-        <v>-0.0580093896908862</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1022387498452764</v>
+      </c>
+      <c r="E75">
+        <v>-0.07826049789769497</v>
+      </c>
+      <c r="F75">
+        <v>-0.006939520169569167</v>
+      </c>
+      <c r="G75">
+        <v>0.09278042028909068</v>
+      </c>
+      <c r="H75">
+        <v>-0.1466029122883352</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1270843050579102</v>
+        <v>0.1264495734165304</v>
       </c>
       <c r="C76">
-        <v>0.08699517951014452</v>
+        <v>-0.112935807274857</v>
       </c>
       <c r="D76">
-        <v>-0.006096912714368381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01925088178068588</v>
+      </c>
+      <c r="E76">
+        <v>-0.1150360210844493</v>
+      </c>
+      <c r="F76">
+        <v>0.01361129846707932</v>
+      </c>
+      <c r="G76">
+        <v>0.06408968119626726</v>
+      </c>
+      <c r="H76">
+        <v>-0.01626288731951422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07429616697726259</v>
+        <v>0.06763695956255326</v>
       </c>
       <c r="C77">
-        <v>0.04960830810894024</v>
+        <v>-0.06808425073958724</v>
       </c>
       <c r="D77">
-        <v>0.06955587428703015</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1414894459191394</v>
+      </c>
+      <c r="E77">
+        <v>-0.1344136002172738</v>
+      </c>
+      <c r="F77">
+        <v>-0.2853344423243078</v>
+      </c>
+      <c r="G77">
+        <v>-0.07299935617643784</v>
+      </c>
+      <c r="H77">
+        <v>-0.2767206876816725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03767931256637133</v>
+        <v>0.03972315962847952</v>
       </c>
       <c r="C78">
-        <v>0.04623141270640515</v>
+        <v>-0.06032718142226871</v>
       </c>
       <c r="D78">
-        <v>0.1108658714991269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1243901341398298</v>
+      </c>
+      <c r="E78">
+        <v>-0.02500150674923363</v>
+      </c>
+      <c r="F78">
+        <v>0.02081672894220936</v>
+      </c>
+      <c r="G78">
+        <v>0.02809754050287665</v>
+      </c>
+      <c r="H78">
+        <v>0.04420748985820883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0006414515946602554</v>
+        <v>0.04180898679927433</v>
       </c>
       <c r="C79">
-        <v>-0.0006477226313583991</v>
+        <v>-0.0852110484161742</v>
       </c>
       <c r="D79">
-        <v>0.01696771003069581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02726400354973932</v>
+      </c>
+      <c r="E79">
+        <v>-0.1686521798104162</v>
+      </c>
+      <c r="F79">
+        <v>0.07702318405024129</v>
+      </c>
+      <c r="G79">
+        <v>0.5753564995090359</v>
+      </c>
+      <c r="H79">
+        <v>-0.4714683688977876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02892790806809784</v>
+        <v>0.0250736934636848</v>
       </c>
       <c r="C80">
-        <v>0.01636421133799171</v>
+        <v>-0.03673041022790578</v>
       </c>
       <c r="D80">
-        <v>0.0250313716499656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03547443017340184</v>
+      </c>
+      <c r="E80">
+        <v>-0.01356683295484502</v>
+      </c>
+      <c r="F80">
+        <v>-0.03966542156013236</v>
+      </c>
+      <c r="G80">
+        <v>-0.0432443421917765</v>
+      </c>
+      <c r="H80">
+        <v>0.0376409287818578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1424091515761473</v>
+        <v>0.1315552600599105</v>
       </c>
       <c r="C81">
-        <v>0.09997665096379614</v>
+        <v>-0.1182970139475145</v>
       </c>
       <c r="D81">
-        <v>-0.0471367672288649</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06931168018030007</v>
+      </c>
+      <c r="E81">
+        <v>-0.1132942769287719</v>
+      </c>
+      <c r="F81">
+        <v>0.002125988501557159</v>
+      </c>
+      <c r="G81">
+        <v>0.05748750135089167</v>
+      </c>
+      <c r="H81">
+        <v>-0.04426249407794035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2868030948815141</v>
+        <v>0.2490179068480445</v>
       </c>
       <c r="C82">
-        <v>0.2669781782790476</v>
+        <v>-0.2470170884459319</v>
       </c>
       <c r="D82">
-        <v>-0.222319136762563</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2215176625062973</v>
+      </c>
+      <c r="E82">
+        <v>-0.002712350783137553</v>
+      </c>
+      <c r="F82">
+        <v>0.04244842567156925</v>
+      </c>
+      <c r="G82">
+        <v>0.2219931482487522</v>
+      </c>
+      <c r="H82">
+        <v>0.4374986740834716</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02792710426935353</v>
+        <v>0.0228841661804361</v>
       </c>
       <c r="C83">
-        <v>0.04452286069468087</v>
+        <v>-0.05040872513712984</v>
       </c>
       <c r="D83">
-        <v>0.04966522990545702</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05175639913757842</v>
+      </c>
+      <c r="E83">
+        <v>-0.007342852899124371</v>
+      </c>
+      <c r="F83">
+        <v>-0.02518408467997647</v>
+      </c>
+      <c r="G83">
+        <v>0.001347212943819257</v>
+      </c>
+      <c r="H83">
+        <v>0.03092916590596618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000178252075642775</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00485065238232507</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01550234954091032</v>
+      </c>
+      <c r="E84">
+        <v>-0.01587676681164176</v>
+      </c>
+      <c r="F84">
+        <v>0.005170471088546316</v>
+      </c>
+      <c r="G84">
+        <v>-0.009845406306070592</v>
+      </c>
+      <c r="H84">
+        <v>0.002054327760910058</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1820397629119079</v>
+        <v>0.1636667811890989</v>
       </c>
       <c r="C85">
-        <v>0.09291985614368024</v>
+        <v>-0.1308464545644709</v>
       </c>
       <c r="D85">
-        <v>-0.0421015599797064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.07333924903069597</v>
+      </c>
+      <c r="E85">
+        <v>-0.04487012462516723</v>
+      </c>
+      <c r="F85">
+        <v>0.03663917803936029</v>
+      </c>
+      <c r="G85">
+        <v>0.09541361622813632</v>
+      </c>
+      <c r="H85">
+        <v>-0.1124605304117978</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01481377966887091</v>
+        <v>0.01990059336459123</v>
       </c>
       <c r="C86">
-        <v>0.01929839936874684</v>
+        <v>-0.02183011981272032</v>
       </c>
       <c r="D86">
-        <v>0.1342799172258325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1245345578471765</v>
+      </c>
+      <c r="E86">
+        <v>-0.01542667216127092</v>
+      </c>
+      <c r="F86">
+        <v>-0.006963863696394183</v>
+      </c>
+      <c r="G86">
+        <v>0.02527461876495107</v>
+      </c>
+      <c r="H86">
+        <v>0.05567194537112933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02713364088460533</v>
+        <v>0.03253040772636124</v>
       </c>
       <c r="C87">
-        <v>0.001176365139559897</v>
+        <v>-0.0248675577641574</v>
       </c>
       <c r="D87">
-        <v>0.08835407507628884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1257975050314651</v>
+      </c>
+      <c r="E87">
+        <v>-0.0831603364467504</v>
+      </c>
+      <c r="F87">
+        <v>-0.01911634271298408</v>
+      </c>
+      <c r="G87">
+        <v>-0.007693544242423142</v>
+      </c>
+      <c r="H87">
+        <v>0.03492639207577981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08226062205565507</v>
+        <v>0.07419865426571474</v>
       </c>
       <c r="C88">
-        <v>0.04155206433194844</v>
+        <v>-0.05876198474800542</v>
       </c>
       <c r="D88">
-        <v>0.0455316596693888</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02646349442192469</v>
+      </c>
+      <c r="E88">
+        <v>-0.02560009964984211</v>
+      </c>
+      <c r="F88">
+        <v>0.001512858636623751</v>
+      </c>
+      <c r="G88">
+        <v>0.001633773820723193</v>
+      </c>
+      <c r="H88">
+        <v>0.03604282975864334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1984884231499338</v>
+        <v>0.2644246376396618</v>
       </c>
       <c r="C89">
-        <v>-0.3637894938570595</v>
+        <v>0.3558844227460033</v>
       </c>
       <c r="D89">
-        <v>-0.05431106335703685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01401425249775157</v>
+      </c>
+      <c r="E89">
+        <v>-0.05966707866317553</v>
+      </c>
+      <c r="F89">
+        <v>-0.04326816603956738</v>
+      </c>
+      <c r="G89">
+        <v>0.02714991945757137</v>
+      </c>
+      <c r="H89">
+        <v>0.06219287405836881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1959517966386252</v>
+        <v>0.2326795447514822</v>
       </c>
       <c r="C90">
-        <v>-0.2985629129760459</v>
+        <v>0.2652045960384533</v>
       </c>
       <c r="D90">
-        <v>-0.05435951711485935</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005809190303007799</v>
+      </c>
+      <c r="E90">
+        <v>-0.0552197042463823</v>
+      </c>
+      <c r="F90">
+        <v>0.002215660492055572</v>
+      </c>
+      <c r="G90">
+        <v>-0.0376666748799085</v>
+      </c>
+      <c r="H90">
+        <v>0.04831469649003212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1820973630376362</v>
+        <v>0.1680613294693929</v>
       </c>
       <c r="C91">
-        <v>0.1319761595069115</v>
+        <v>-0.1580227282033556</v>
       </c>
       <c r="D91">
-        <v>-0.05882908999650651</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08406829363195559</v>
+      </c>
+      <c r="E91">
+        <v>-0.09719095472111206</v>
+      </c>
+      <c r="F91">
+        <v>0.017391736147979</v>
+      </c>
+      <c r="G91">
+        <v>0.08757071841144881</v>
+      </c>
+      <c r="H91">
+        <v>-0.1281031915981666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1608869059387594</v>
+        <v>0.2098273238792453</v>
       </c>
       <c r="C92">
-        <v>-0.2891850976043669</v>
+        <v>0.2770301177277024</v>
       </c>
       <c r="D92">
-        <v>-0.01455945599557588</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01254655274697733</v>
+      </c>
+      <c r="E92">
+        <v>-0.0867491023780957</v>
+      </c>
+      <c r="F92">
+        <v>-0.0355117444310987</v>
+      </c>
+      <c r="G92">
+        <v>0.005744786222148814</v>
+      </c>
+      <c r="H92">
+        <v>0.03792345066008438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2252007702795636</v>
+        <v>0.2571426488477461</v>
       </c>
       <c r="C93">
-        <v>-0.3205342625069107</v>
+        <v>0.2777555464212962</v>
       </c>
       <c r="D93">
-        <v>-0.03426990152043209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01417164434511933</v>
+      </c>
+      <c r="E93">
+        <v>-0.02850209166553761</v>
+      </c>
+      <c r="F93">
+        <v>0.03462897148774503</v>
+      </c>
+      <c r="G93">
+        <v>0.007935717278828735</v>
+      </c>
+      <c r="H93">
+        <v>0.005491125441339684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3860143517958038</v>
+        <v>0.3355492736108965</v>
       </c>
       <c r="C94">
-        <v>0.2496516038814889</v>
+        <v>-0.2605598844168622</v>
       </c>
       <c r="D94">
-        <v>-0.4654836930720258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4423354458608246</v>
+      </c>
+      <c r="E94">
+        <v>-0.1213014688676425</v>
+      </c>
+      <c r="F94">
+        <v>-0.04143496875035455</v>
+      </c>
+      <c r="G94">
+        <v>-0.5949735995686869</v>
+      </c>
+      <c r="H94">
+        <v>-0.04590415980376663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08637899470840799</v>
+        <v>0.07471681015528417</v>
       </c>
       <c r="C95">
-        <v>0.05911516567434762</v>
+        <v>-0.05772215020567958</v>
       </c>
       <c r="D95">
-        <v>0.1231356443894428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08825764963944652</v>
+      </c>
+      <c r="E95">
+        <v>0.1034047111373023</v>
+      </c>
+      <c r="F95">
+        <v>-0.9102180171180684</v>
+      </c>
+      <c r="G95">
+        <v>0.05987236060598383</v>
+      </c>
+      <c r="H95">
+        <v>-0.01672506393556598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1787134708327551</v>
+        <v>0.1659218585099011</v>
       </c>
       <c r="C98">
-        <v>0.01142271690647759</v>
+        <v>-0.05385067967095272</v>
       </c>
       <c r="D98">
-        <v>0.1457250257623348</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1291802133565965</v>
+      </c>
+      <c r="E98">
+        <v>0.2958126568644722</v>
+      </c>
+      <c r="F98">
+        <v>0.08518907538163682</v>
+      </c>
+      <c r="G98">
+        <v>0.02769803186729744</v>
+      </c>
+      <c r="H98">
+        <v>-0.02324054950485111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005004116084222766</v>
+        <v>0.006877295223773814</v>
       </c>
       <c r="C101">
-        <v>0.01685299687964299</v>
+        <v>-0.02127312161146431</v>
       </c>
       <c r="D101">
-        <v>0.06325960661409202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07796825327376877</v>
+      </c>
+      <c r="E101">
+        <v>-0.03950262389994048</v>
+      </c>
+      <c r="F101">
+        <v>0.002279167703577035</v>
+      </c>
+      <c r="G101">
+        <v>0.01730273478507802</v>
+      </c>
+      <c r="H101">
+        <v>0.1064083790266059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1253854379192473</v>
+        <v>0.1122674695564432</v>
       </c>
       <c r="C102">
-        <v>0.112166364670413</v>
+        <v>-0.1182570245070631</v>
       </c>
       <c r="D102">
-        <v>-0.03520308183003928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04971536795621597</v>
+      </c>
+      <c r="E102">
+        <v>-0.02968539350281346</v>
+      </c>
+      <c r="F102">
+        <v>-0.01929526137587831</v>
+      </c>
+      <c r="G102">
+        <v>0.05796688704838664</v>
+      </c>
+      <c r="H102">
+        <v>0.009018031733102051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
